--- a/inputs/data_raw/Data_BART_planInfo_AV2019.xlsx
+++ b/inputs/data_raw/Data_BART_planInfo_AV2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_BART\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB449575-D51A-404D-8E24-E46FE6FB5AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7633545D-9C39-4009-8C1A-081B539A6253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init_unrecReturn" sheetId="12" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="63">
   <si>
     <t>year</t>
   </si>
@@ -505,6 +505,9 @@
   <si>
     <t>D7:F35</t>
   </si>
+  <si>
+    <t>D7:F36</t>
+  </si>
 </sst>
 </file>
 
@@ -869,80 +872,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1576,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BFE154-32C8-48F8-AF28-84298376E385}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1613,7 +1616,7 @@
         <v>35</v>
       </c>
       <c r="B4">
-        <v>20180630</v>
+        <v>20190630</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1626,7 +1629,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="C7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1634,7 +1637,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="C8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1642,7 +1645,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="C9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1650,14 +1653,11 @@
     </row>
     <row r="10" spans="1:4">
       <c r="C10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1725,416 +1725,416 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="C6" s="66"/>
-      <c r="D6" s="67" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="68"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="74" t="s">
+      <c r="D7" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="72" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="C8" s="69">
+      <c r="C8" s="66">
         <v>43646</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="67">
         <v>2019</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="68">
         <v>677813700</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="68">
         <v>39847401</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="C9" s="69">
+      <c r="C9" s="66">
         <v>44012</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="67">
         <v>2020</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="68">
         <v>684042187</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="68">
         <v>48571632</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="C10" s="69">
+      <c r="C10" s="66">
         <v>44377</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="67">
         <v>2021</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="68">
         <v>681682253</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="69">
         <v>56666712</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="C11" s="69">
+      <c r="C11" s="66">
         <v>44742</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="67">
         <v>2022</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="68">
         <v>670783510</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="69">
         <v>62791995</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="C12" s="69">
+      <c r="C12" s="66">
         <v>45107</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="67">
         <v>2023</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="68">
         <v>652785810</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="69">
         <v>66356981</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="C13" s="69">
+      <c r="C13" s="66">
         <v>45473</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="67">
         <v>2024</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="68">
         <v>629840622</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="69">
         <v>70293375</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="C14" s="69">
+      <c r="C14" s="66">
         <v>45838</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="67">
         <v>2025</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="68">
         <v>601217433</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="69">
         <v>62939672</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="C15" s="69">
+      <c r="C15" s="66">
         <v>46203</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="67">
         <v>2026</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="68">
         <v>578197350</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="69">
         <v>65356690</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="69">
+      <c r="C16" s="66">
         <v>46568</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="67">
         <v>2027</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="68">
         <v>551065677</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="69">
         <v>67099240</v>
       </c>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="69">
+      <c r="C17" s="66">
         <v>46934</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D17" s="67">
         <v>2028</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="68">
         <v>520232282</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="69">
         <v>68889716</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="69">
+      <c r="C18" s="66">
         <v>47299</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="67">
         <v>2029</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="68">
         <v>485388465</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="69">
         <v>69719679</v>
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="69">
+      <c r="C19" s="66">
         <v>47664</v>
       </c>
-      <c r="D19" s="70">
+      <c r="D19" s="67">
         <v>2030</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="68">
         <v>447247062</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="69">
         <v>71582214</v>
       </c>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="69">
+      <c r="C20" s="66">
         <v>48029</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="67">
         <v>2031</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="68">
         <v>404509139</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="69">
         <v>66820991</v>
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="69">
+      <c r="C21" s="66">
         <v>48395</v>
       </c>
-      <c r="D21" s="70">
+      <c r="D21" s="67">
         <v>2032</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="68">
         <v>363704610</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="69">
         <v>65340882</v>
       </c>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="69">
+      <c r="C22" s="66">
         <v>48760</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="67">
         <v>2033</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="68">
         <v>321574800</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="69">
         <v>58885219</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="69">
+      <c r="C23" s="66">
         <v>49125</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="67">
         <v>2034</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="68">
         <v>283173690</v>
       </c>
-      <c r="F23" s="72">
+      <c r="F23" s="69">
         <v>55943662</v>
       </c>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="69">
+      <c r="C24" s="66">
         <v>49490</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="67">
         <v>2035</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="68">
         <v>245127276</v>
       </c>
-      <c r="F24" s="72">
+      <c r="F24" s="69">
         <v>51688744</v>
       </c>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="69">
+      <c r="C25" s="66">
         <v>49856</v>
       </c>
-      <c r="D25" s="70">
+      <c r="D25" s="67">
         <v>2036</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="68">
         <v>208818935</v>
       </c>
-      <c r="F25" s="72">
+      <c r="F25" s="69">
         <v>44617932</v>
       </c>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="69">
+      <c r="C26" s="66">
         <v>50221</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="67">
         <v>2037</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="68">
         <v>177283114</v>
       </c>
-      <c r="F26" s="72">
+      <c r="F26" s="69">
         <v>40857584</v>
       </c>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="69">
+      <c r="C27" s="66">
         <v>50586</v>
       </c>
-      <c r="D27" s="70">
+      <c r="D27" s="67">
         <v>2038</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="68">
         <v>147429519</v>
       </c>
-      <c r="F27" s="72">
+      <c r="F27" s="69">
         <v>36858183</v>
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="69">
+      <c r="C28" s="66">
         <v>50951</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="67">
         <v>2039</v>
       </c>
-      <c r="E28" s="71">
+      <c r="E28" s="68">
         <v>119623188</v>
       </c>
-      <c r="F28" s="72">
+      <c r="F28" s="69">
         <v>33824885</v>
       </c>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="69">
+      <c r="C29" s="66">
         <v>51317</v>
       </c>
-      <c r="D29" s="70">
+      <c r="D29" s="67">
         <v>2040</v>
       </c>
-      <c r="E29" s="71">
+      <c r="E29" s="68">
         <v>93008079</v>
       </c>
-      <c r="F29" s="72">
+      <c r="F29" s="69">
         <v>31867972</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="69">
+      <c r="C30" s="66">
         <v>51682</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="67">
         <v>2041</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="68">
         <v>66554159</v>
       </c>
-      <c r="F30" s="72">
+      <c r="F30" s="69">
         <v>19558395</v>
       </c>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="69">
+      <c r="C31" s="66">
         <v>52047</v>
       </c>
-      <c r="D31" s="70">
+      <c r="D31" s="67">
         <v>2042</v>
       </c>
-      <c r="E31" s="71">
+      <c r="E31" s="68">
         <v>50981588</v>
       </c>
-      <c r="F31" s="72">
+      <c r="F31" s="69">
         <v>19260368</v>
       </c>
     </row>
     <row r="32" spans="3:6">
-      <c r="C32" s="69">
+      <c r="C32" s="66">
         <v>52412</v>
       </c>
-      <c r="D32" s="70">
+      <c r="D32" s="67">
         <v>2043</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E32" s="68">
         <v>34627220</v>
       </c>
-      <c r="F32" s="72">
+      <c r="F32" s="69">
         <v>17423283</v>
       </c>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="69">
+      <c r="C33" s="66">
         <v>52778</v>
       </c>
-      <c r="D33" s="70">
+      <c r="D33" s="67">
         <v>2044</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="68">
         <v>19028343</v>
       </c>
-      <c r="F33" s="72">
+      <c r="F33" s="69">
         <v>11317568</v>
       </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="69">
+      <c r="C34" s="66">
         <v>53143</v>
       </c>
-      <c r="D34" s="70">
+      <c r="D34" s="67">
         <v>2045</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E34" s="68">
         <v>8653344</v>
       </c>
-      <c r="F34" s="72">
+      <c r="F34" s="69">
         <v>4855994</v>
       </c>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="69">
+      <c r="C35" s="66">
         <v>53508</v>
       </c>
-      <c r="D35" s="70">
+      <c r="D35" s="67">
         <v>2046</v>
       </c>
-      <c r="E35" s="71">
+      <c r="E35" s="68">
         <v>4235998</v>
       </c>
-      <c r="F35" s="72">
+      <c r="F35" s="69">
         <v>4381750</v>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2175,7 +2175,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -2205,431 +2205,431 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="C6" s="66"/>
-      <c r="D6" s="67" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="68"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="74" t="s">
+      <c r="D7" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="72" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="C8" s="69">
+      <c r="C8" s="66">
         <v>43646</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="67">
         <v>2019</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="69">
         <v>154926148</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="69">
         <v>9001009</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="C9" s="69">
+      <c r="C9" s="66">
         <v>44012</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="67">
         <v>2020</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="69">
         <v>156460264</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="69">
         <v>10608953</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="C10" s="69">
+      <c r="C10" s="66">
         <v>44377</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="67">
         <v>2021</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="69">
         <v>156438496</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="69">
         <v>12672395</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="C11" s="69">
+      <c r="C11" s="66">
         <v>44742</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="67">
         <v>2022</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="69">
         <v>154280763</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="69">
         <v>13704617</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="C12" s="69">
+      <c r="C12" s="66">
         <v>45107</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="67">
         <v>2023</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="69">
         <v>150904249</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="69">
         <v>14414507</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="C13" s="69">
+      <c r="C13" s="66">
         <v>45473</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="67">
         <v>2024</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="69">
         <v>146557065</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="69">
         <v>13109648</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="C14" s="69">
+      <c r="C14" s="66">
         <v>45838</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="67">
         <v>2025</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="58">
         <v>143255333</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="58">
         <v>13533878</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="C15" s="69">
+      <c r="C15" s="66">
         <v>46203</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="67">
         <v>2026</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="58">
         <v>139283655</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="58">
         <v>13943207</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="69">
+      <c r="C16" s="66">
         <v>46568</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="67">
         <v>2027</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="58">
         <v>134610543</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="58">
         <v>14299145</v>
       </c>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="69">
+      <c r="C17" s="66">
         <v>46934</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D17" s="67">
         <v>2028</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="58">
         <v>129242131</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="58">
         <v>14664871</v>
       </c>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="69">
+      <c r="C18" s="66">
         <v>47299</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="67">
         <v>2029</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="58">
         <v>123119621</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18" s="58">
         <v>14937341</v>
       </c>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="69">
+      <c r="C19" s="66">
         <v>47664</v>
       </c>
-      <c r="D19" s="70">
+      <c r="D19" s="67">
         <v>2030</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="58">
         <v>116286687</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="58">
         <v>15320615</v>
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="69">
+      <c r="C20" s="66">
         <v>48029</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="67">
         <v>2031</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="58">
         <v>108578988</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="58">
         <v>15020081</v>
       </c>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="69">
+      <c r="C21" s="66">
         <v>48395</v>
       </c>
-      <c r="D21" s="70">
+      <c r="D21" s="67">
         <v>2032</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="58">
         <v>100642622</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="58">
         <v>14972171</v>
       </c>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="69">
+      <c r="C22" s="66">
         <v>48760</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="67">
         <v>2033</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="58">
         <v>92200273</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="58">
         <v>14257628</v>
       </c>
-      <c r="H22" s="58"/>
+      <c r="H22" s="55"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="69">
+      <c r="C23" s="66">
         <v>49125</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="67">
         <v>2034</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="58">
         <v>83906087</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="58">
         <v>14000466</v>
       </c>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="69">
+      <c r="C24" s="66">
         <v>49490</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="67">
         <v>2035</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="58">
         <v>75297318</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24" s="58">
         <v>13507370</v>
       </c>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="69">
+      <c r="C25" s="66">
         <v>49856</v>
       </c>
-      <c r="D25" s="70">
+      <c r="D25" s="67">
         <v>2036</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="58">
         <v>66595998</v>
       </c>
-      <c r="F25" s="61">
+      <c r="F25" s="58">
         <v>12573812</v>
       </c>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="69">
+      <c r="C26" s="66">
         <v>50221</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="67">
         <v>2037</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="58">
         <v>58251267</v>
       </c>
-      <c r="F26" s="61">
+      <c r="F26" s="58">
         <v>12075873</v>
       </c>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="69">
+      <c r="C27" s="66">
         <v>50586</v>
       </c>
-      <c r="D27" s="70">
+      <c r="D27" s="67">
         <v>2038</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="58">
         <v>49837476</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="58">
         <v>11541799</v>
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="69">
+      <c r="C28" s="66">
         <v>50951</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="67">
         <v>2039</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="58">
         <v>41387169</v>
       </c>
-      <c r="F28" s="61">
+      <c r="F28" s="58">
         <v>11157933</v>
       </c>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="69">
+      <c r="C29" s="66">
         <v>51317</v>
       </c>
-      <c r="D29" s="70">
+      <c r="D29" s="67">
         <v>2040</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="58">
         <v>32742416</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29" s="58">
         <v>10987512</v>
       </c>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="69">
+      <c r="C30" s="66">
         <v>51682</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="67">
         <v>2041</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="58">
         <v>23668813</v>
       </c>
-      <c r="F30" s="61">
+      <c r="F30" s="58">
         <v>8565616</v>
       </c>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="69">
+      <c r="C31" s="66">
         <v>52047</v>
       </c>
-      <c r="D31" s="70">
+      <c r="D31" s="67">
         <v>2042</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E31" s="58">
         <v>16465289</v>
       </c>
-      <c r="F31" s="61">
+      <c r="F31" s="58">
         <v>7530981</v>
       </c>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="69">
+      <c r="C32" s="66">
         <v>52412</v>
       </c>
-      <c r="D32" s="70">
+      <c r="D32" s="67">
         <v>2043</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="58">
         <v>9827751</v>
       </c>
-      <c r="F32" s="61">
+      <c r="F32" s="58">
         <v>6552964</v>
       </c>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="69">
+      <c r="C33" s="66">
         <v>52778</v>
       </c>
-      <c r="D33" s="70">
+      <c r="D33" s="67">
         <v>2044</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33" s="58">
         <v>3737255</v>
       </c>
-      <c r="F33" s="61">
+      <c r="F33" s="58">
         <v>2171442</v>
       </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="69">
+      <c r="C34" s="66">
         <v>53143</v>
       </c>
-      <c r="D34" s="70">
+      <c r="D34" s="67">
         <v>2045</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34" s="58">
         <v>1752707</v>
       </c>
-      <c r="F34" s="61">
+      <c r="F34" s="58">
         <v>1052860</v>
       </c>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="69">
+      <c r="C35" s="66">
         <v>53508</v>
       </c>
-      <c r="D35" s="70">
+      <c r="D35" s="67">
         <v>2046</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="58">
         <v>786309</v>
       </c>
-      <c r="F35" s="61">
+      <c r="F35" s="58">
         <v>802747</v>
       </c>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="69">
+      <c r="C36" s="66">
         <v>53873</v>
       </c>
-      <c r="D36" s="70">
+      <c r="D36" s="67">
         <v>2047</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="58">
         <v>10983</v>
       </c>
-      <c r="F36" s="61">
+      <c r="F36" s="58">
         <v>11361</v>
       </c>
     </row>
@@ -2657,349 +2657,349 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5">
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="52"/>
+      <c r="E3" s="73"/>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="64"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="64"/>
-      <c r="D5" s="53" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="53"/>
+      <c r="E5" s="74"/>
     </row>
     <row r="6" spans="3:5" ht="22.5" customHeight="1">
-      <c r="C6" s="64"/>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="56">
+      <c r="C7" s="53">
         <v>44377</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="54">
         <v>681682253</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="55">
         <v>56666712</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="59">
+      <c r="C8" s="56">
         <v>44742</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="57">
         <v>670783510</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="58">
         <v>62791995</v>
       </c>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="59">
+      <c r="C9" s="56">
         <v>45107</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="57">
         <v>652785810</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="58">
         <v>66356981</v>
       </c>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="59">
+      <c r="C10" s="56">
         <v>45473</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="57">
         <v>629840622</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="58">
         <v>70293375</v>
       </c>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="59">
+      <c r="C11" s="56">
         <v>45838</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="57">
         <v>601217433</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="58">
         <v>62939672</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="59">
+      <c r="C12" s="56">
         <v>46203</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="57">
         <v>578197350</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="58">
         <v>65356690</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="59">
+      <c r="C13" s="56">
         <v>46568</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="57">
         <v>551065677</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="58">
         <v>67099240</v>
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="59">
+      <c r="C14" s="56">
         <v>46934</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="57">
         <v>520232282</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="58">
         <v>68889716</v>
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="59">
+      <c r="C15" s="56">
         <v>47299</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="57">
         <v>485388465</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="58">
         <v>69719679</v>
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="59">
+      <c r="C16" s="56">
         <v>47664</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="57">
         <v>447247062</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="58">
         <v>71582214</v>
       </c>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="59">
+      <c r="C17" s="56">
         <v>48029</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="57">
         <v>404509139</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="58">
         <v>66820991</v>
       </c>
     </row>
     <row r="18" spans="3:10">
-      <c r="C18" s="59">
+      <c r="C18" s="56">
         <v>48395</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="57">
         <v>363704610</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="58">
         <v>65340882</v>
       </c>
     </row>
     <row r="19" spans="3:10">
-      <c r="C19" s="59">
+      <c r="C19" s="56">
         <v>48760</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="57">
         <v>321574800</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="58">
         <v>58885219</v>
       </c>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="59">
+      <c r="C20" s="56">
         <v>49125</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="57">
         <v>283173690</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="58">
         <v>55943662</v>
       </c>
     </row>
     <row r="21" spans="3:10">
-      <c r="C21" s="59">
+      <c r="C21" s="56">
         <v>49490</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="57">
         <v>245127276</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="58">
         <v>51688744</v>
       </c>
     </row>
     <row r="22" spans="3:10">
-      <c r="C22" s="59">
+      <c r="C22" s="56">
         <v>49856</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="57">
         <v>208818935</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="58">
         <v>44617932</v>
       </c>
     </row>
     <row r="23" spans="3:10">
-      <c r="C23" s="59">
+      <c r="C23" s="56">
         <v>50221</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="57">
         <v>177283114</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="58">
         <v>40857584</v>
       </c>
     </row>
     <row r="24" spans="3:10">
-      <c r="C24" s="59">
+      <c r="C24" s="56">
         <v>50586</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="57">
         <v>147429519</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="58">
         <v>36858183</v>
       </c>
       <c r="J24"/>
     </row>
     <row r="25" spans="3:10">
-      <c r="C25" s="59">
+      <c r="C25" s="56">
         <v>50951</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="57">
         <v>119623188</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="58">
         <v>33824885</v>
       </c>
     </row>
     <row r="26" spans="3:10">
-      <c r="C26" s="59">
+      <c r="C26" s="56">
         <v>51317</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="57">
         <v>93008079</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="58">
         <v>31867972</v>
       </c>
     </row>
     <row r="27" spans="3:10">
-      <c r="C27" s="59">
+      <c r="C27" s="56">
         <v>51682</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="57">
         <v>66554159</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="58">
         <v>19558395</v>
       </c>
     </row>
     <row r="28" spans="3:10">
-      <c r="C28" s="59">
+      <c r="C28" s="56">
         <v>52047</v>
       </c>
-      <c r="D28" s="60">
+      <c r="D28" s="57">
         <v>50981588</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="58">
         <v>19260368</v>
       </c>
     </row>
     <row r="29" spans="3:10">
-      <c r="C29" s="59">
+      <c r="C29" s="56">
         <v>52412</v>
       </c>
-      <c r="D29" s="60">
+      <c r="D29" s="57">
         <v>34627220</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="58">
         <v>17423283</v>
       </c>
     </row>
     <row r="30" spans="3:10">
-      <c r="C30" s="59">
+      <c r="C30" s="56">
         <v>52778</v>
       </c>
-      <c r="D30" s="60">
+      <c r="D30" s="57">
         <v>19028343</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="58">
         <v>11317568</v>
       </c>
     </row>
     <row r="31" spans="3:10">
-      <c r="C31" s="59">
+      <c r="C31" s="56">
         <v>53143</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31" s="57">
         <v>8653344</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E31" s="58">
         <v>4855994</v>
       </c>
     </row>
     <row r="32" spans="3:10">
-      <c r="C32" s="59">
+      <c r="C32" s="56">
         <v>53508</v>
       </c>
-      <c r="D32" s="60">
+      <c r="D32" s="57">
         <v>4235998</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="58">
         <v>4381750</v>
       </c>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="59">
+      <c r="C33" s="56">
         <v>53873</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="50"/>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="59">
+      <c r="C34" s="56">
         <v>54239</v>
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="50"/>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="59">
+      <c r="C35" s="56">
         <v>54604</v>
       </c>
       <c r="D35" s="50"/>
       <c r="E35" s="50"/>
     </row>
     <row r="36" spans="3:5">
-      <c r="C36" s="62">
+      <c r="C36" s="59">
         <v>54969</v>
       </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3025,352 +3025,352 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="52"/>
+      <c r="D2" s="73"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="51"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="53"/>
-    </row>
-    <row r="5" spans="2:4" ht="22.5">
-      <c r="B5" s="51"/>
-      <c r="C5" s="54" t="s">
+      <c r="D4" s="74"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="75"/>
+      <c r="C5" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="56">
+      <c r="B6" s="53">
         <v>44377</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="55">
         <v>156438496</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="55">
         <v>12672395</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="59">
+      <c r="B7" s="56">
         <v>44742</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="58">
         <v>154280763</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="58">
         <v>13704617</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="59">
+      <c r="B8" s="56">
         <v>45107</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="58">
         <v>150904249</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="58">
         <v>14414507</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="59">
+      <c r="B9" s="56">
         <v>45473</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="58">
         <v>146557065</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="58">
         <v>13109648</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="59">
+      <c r="B10" s="56">
         <v>45838</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="58">
         <v>143255333</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="58">
         <v>13533878</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="59">
+      <c r="B11" s="56">
         <v>46203</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="58">
         <v>139283655</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="58">
         <v>13943207</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="59">
+      <c r="B12" s="56">
         <v>46568</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="58">
         <v>134610543</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="58">
         <v>14299145</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="59">
+      <c r="B13" s="56">
         <v>46934</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="58">
         <v>129242131</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="58">
         <v>14664871</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="59">
+      <c r="B14" s="56">
         <v>47299</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="58">
         <v>123119621</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="58">
         <v>14937341</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="59">
+      <c r="B15" s="56">
         <v>47664</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="58">
         <v>116286687</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="58">
         <v>15320615</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="59">
+      <c r="B16" s="56">
         <v>48029</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="58">
         <v>108578988</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="58">
         <v>15020081</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="59">
+      <c r="B17" s="56">
         <v>48395</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="58">
         <v>100642622</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="58">
         <v>14972171</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="59">
+      <c r="B18" s="56">
         <v>48760</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="58">
         <v>92200273</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="58">
         <v>14257628</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="59">
+      <c r="B19" s="56">
         <v>49125</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="58">
         <v>83906087</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="58">
         <v>14000466</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="59">
+      <c r="B20" s="56">
         <v>49490</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="58">
         <v>75297318</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="58">
         <v>13507370</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="59">
+      <c r="B21" s="56">
         <v>49856</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="58">
         <v>66595998</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="58">
         <v>12573812</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="59">
+      <c r="B22" s="56">
         <v>50221</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="58">
         <v>58251267</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="58">
         <v>12075873</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="59">
+      <c r="B23" s="56">
         <v>50586</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="58">
         <v>49837476</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="58">
         <v>11541799</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="59">
+      <c r="B24" s="56">
         <v>50951</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="58">
         <v>41387169</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="58">
         <v>11157933</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="59">
+      <c r="B25" s="56">
         <v>51317</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="58">
         <v>32742416</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="58">
         <v>10987512</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="59">
+      <c r="B26" s="56">
         <v>51682</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="58">
         <v>23668813</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="58">
         <v>8565616</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="59">
+      <c r="B27" s="56">
         <v>52047</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="58">
         <v>16465289</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="58">
         <v>7530981</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="59">
+      <c r="B28" s="56">
         <v>52412</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="58">
         <v>9827751</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="58">
         <v>6552964</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="59">
+      <c r="B29" s="56">
         <v>52778</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="58">
         <v>3737255</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="58">
         <v>2171442</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="59">
+      <c r="B30" s="56">
         <v>53143</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="58">
         <v>1752707</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="58">
         <v>1052860</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="59">
+      <c r="B31" s="56">
         <v>53508</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="58">
         <v>786309</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="58">
         <v>802747</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="59">
+      <c r="B32" s="56">
         <v>53873</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="58">
         <v>10983</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="58">
         <v>11361</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="59">
+      <c r="B33" s="56">
         <v>54239</v>
       </c>
       <c r="C33" s="50"/>
       <c r="D33" s="50"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="59">
+      <c r="B34" s="56">
         <v>54604</v>
       </c>
       <c r="C34" s="50"/>
       <c r="D34" s="50"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="62">
+      <c r="B35" s="59">
         <v>54969</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/inputs/data_raw/Data_BART_planInfo_AV2019.xlsx
+++ b/inputs/data_raw/Data_BART_planInfo_AV2019.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_BART\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7633545D-9C39-4009-8C1A-081B539A6253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0F670D-8AEC-4514-B9FF-2FF74F6757C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init_unrecReturn" sheetId="12" r:id="rId1"/>
     <sheet name="Init_amort_misc" sheetId="19" r:id="rId2"/>
-    <sheet name="Init_amort_sfty" sheetId="21" r:id="rId3"/>
-    <sheet name="init_amort_misc_raw" sheetId="14" r:id="rId4"/>
-    <sheet name="init_amort_sfty_raw" sheetId="16" r:id="rId5"/>
-    <sheet name="Init_amort_old" sheetId="13" r:id="rId6"/>
+    <sheet name="benFactor_misc" sheetId="22" r:id="rId3"/>
+    <sheet name="benFactor_sfty" sheetId="23" r:id="rId4"/>
+    <sheet name="Init_amort_sfty" sheetId="21" r:id="rId5"/>
+    <sheet name="init_amort_misc_raw" sheetId="14" r:id="rId6"/>
+    <sheet name="init_amort_sfty_raw" sheetId="16" r:id="rId7"/>
+    <sheet name="Init_amort_old" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="73">
   <si>
     <t>year</t>
   </si>
@@ -508,6 +510,36 @@
   <si>
     <t>D7:F36</t>
   </si>
+  <si>
+    <t>age_ret</t>
+  </si>
+  <si>
+    <t>bfactor_classic</t>
+  </si>
+  <si>
+    <t>bfactor_pepra</t>
+  </si>
+  <si>
+    <t>2%@55</t>
+  </si>
+  <si>
+    <t>3%@50</t>
+  </si>
+  <si>
+    <t>2.5%@57</t>
+  </si>
+  <si>
+    <t>2%@62</t>
+  </si>
+  <si>
+    <t>benReduction_classic</t>
+  </si>
+  <si>
+    <t>benReduction_pepra</t>
+  </si>
+  <si>
+    <t>C6:G27</t>
+  </si>
 </sst>
 </file>
 
@@ -724,7 +756,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -947,6 +979,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1671,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F49FC7C-DD2C-405B-92FC-5C3DD4EF3D88}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2148,11 +2181,1065 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9147E840-414A-4EF7-8AF7-D7B00A1C58BE}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>20190630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="D5" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>1.426E-2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>D7/$D$12</f>
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="G7">
+        <f>E7/$E$19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>1.5219999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F27" si="0">D8/$D$12</f>
+        <v>0.7609999999999999</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G27" si="1">E8/$E$19</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>F8-F7</f>
+        <v>4.7999999999999932E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>1.6279999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <f>F9-F8</f>
+        <v>5.3000000000000047E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>1.7420000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.87100000000000011</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="I10">
+        <f>F10-F9</f>
+        <v>5.7000000000000162E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>1.866E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.93299999999999994</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="I11">
+        <f>F11-F10</f>
+        <v>6.1999999999999833E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>0.02</v>
+      </c>
+      <c r="E12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="I12">
+        <f>F12-F11</f>
+        <v>6.700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="C13">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>2.052E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.026</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I27" si="2">F13-F12</f>
+        <v>2.6000000000000023E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>2.104E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.052</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>2.6000000000000023E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>2.1559999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.0779999999999998</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>2.5999999999999801E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="C16">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.105</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>2.7000000000000135E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>2.2620000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.131</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>2.6000000000000023E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18">
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <v>2.3140000000000001E-2</v>
+      </c>
+      <c r="E18">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.157</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>2.6000000000000023E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>2.366E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.02</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>2.6000000000000023E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <v>2.418E-2</v>
+      </c>
+      <c r="E20">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>2.6000000000000023E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>2.418E-2</v>
+      </c>
+      <c r="E21">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22">
+        <v>65</v>
+      </c>
+      <c r="D22">
+        <v>2.418E-2</v>
+      </c>
+      <c r="E22">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23">
+        <v>66</v>
+      </c>
+      <c r="D23">
+        <v>2.418E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24">
+        <v>67</v>
+      </c>
+      <c r="D24">
+        <v>2.418E-2</v>
+      </c>
+      <c r="E24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>2.418E-2</v>
+      </c>
+      <c r="E25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26">
+        <v>69</v>
+      </c>
+      <c r="D26">
+        <v>2.418E-2</v>
+      </c>
+      <c r="E26">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>2.418E-2</v>
+      </c>
+      <c r="E27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{B481F126-262E-4CE4-8C74-C2D0A95A5C96}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0846F66D-AF41-4840-B50F-FCBDD98B101F}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>20190630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="D5" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>0.03</v>
+      </c>
+      <c r="E7">
+        <v>0.02</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G13" si="0">E7/$E$14</f>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>0.03</v>
+      </c>
+      <c r="E8">
+        <v>2.0709999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.82839999999999991</v>
+      </c>
+      <c r="I8">
+        <f>E8-E7</f>
+        <v>7.0999999999999883E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>0.03</v>
+      </c>
+      <c r="E9">
+        <v>2.1430000000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.85719999999999996</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I14" si="1">E9-E8</f>
+        <v>7.2000000000000189E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>0.03</v>
+      </c>
+      <c r="E10">
+        <v>2.214E-2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.88559999999999994</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>7.0999999999999883E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>0.03</v>
+      </c>
+      <c r="E11">
+        <v>2.2859999999999998E-2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.91439999999999988</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999842E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>0.03</v>
+      </c>
+      <c r="E12">
+        <v>2.3570000000000001E-2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>7.100000000000023E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="C13">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>0.03</v>
+      </c>
+      <c r="E13">
+        <v>2.4289999999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.97159999999999991</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999842E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>0.03</v>
+      </c>
+      <c r="E14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>E14/$E$14</f>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>7.100000000000023E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>0.03</v>
+      </c>
+      <c r="E15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G27" si="2">E15/$E$14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="C16">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>0.03</v>
+      </c>
+      <c r="E16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>0.03</v>
+      </c>
+      <c r="E17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18">
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <v>0.03</v>
+      </c>
+      <c r="E18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>0.03</v>
+      </c>
+      <c r="E19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <v>0.03</v>
+      </c>
+      <c r="E20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>0.03</v>
+      </c>
+      <c r="E21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22">
+        <v>65</v>
+      </c>
+      <c r="D22">
+        <v>0.03</v>
+      </c>
+      <c r="E22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23">
+        <v>66</v>
+      </c>
+      <c r="D23">
+        <v>0.03</v>
+      </c>
+      <c r="E23">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24">
+        <v>67</v>
+      </c>
+      <c r="D24">
+        <v>0.03</v>
+      </c>
+      <c r="E24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>0.03</v>
+      </c>
+      <c r="E25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26">
+        <v>69</v>
+      </c>
+      <c r="D26">
+        <v>0.03</v>
+      </c>
+      <c r="E26">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>0.03</v>
+      </c>
+      <c r="E27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{F276CA44-2013-47CF-92FE-D2701ED23D4E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A85458D-8B8C-49F3-AA65-BAD393CD3F76}">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2642,7 +3729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9BA894-C57D-4344-8269-499E3FED8AF1}">
   <dimension ref="C3:J36"/>
   <sheetViews>
@@ -3011,7 +4098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D77C1E-1AC0-4107-B27B-D06206DA430E}">
   <dimension ref="B2:D35"/>
   <sheetViews>
@@ -3383,7 +4470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FFFA73-2D4A-4AA3-8BAA-C57267D0CB48}">
   <dimension ref="A1:M109"/>
   <sheetViews>

--- a/inputs/data_raw/Data_BART_planInfo_AV2019.xlsx
+++ b/inputs/data_raw/Data_BART_planInfo_AV2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_BART\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0F670D-8AEC-4514-B9FF-2FF74F6757C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6BD958-F4E1-408F-8E4F-BA32771CBE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init_unrecReturn" sheetId="12" r:id="rId1"/>
@@ -514,12 +514,6 @@
     <t>age_ret</t>
   </si>
   <si>
-    <t>bfactor_classic</t>
-  </si>
-  <si>
-    <t>bfactor_pepra</t>
-  </si>
-  <si>
     <t>2%@55</t>
   </si>
   <si>
@@ -539,6 +533,12 @@
   </si>
   <si>
     <t>C6:G27</t>
+  </si>
+  <si>
+    <t>bfactor_reduced_classic</t>
+  </si>
+  <si>
+    <t>bfactor_reduced_pepra</t>
   </si>
 </sst>
 </file>
@@ -970,6 +970,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
@@ -979,7 +980,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2184,14 +2184,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9147E840-414A-4EF7-8AF7-D7B00A1C58BE}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
@@ -2207,7 +2207,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2227,17 +2227,17 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="D5" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="76" t="s">
-        <v>69</v>
+      <c r="D5" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2245,16 +2245,16 @@
         <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2748,14 +2748,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0846F66D-AF41-4840-B50F-FCBDD98B101F}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
@@ -2770,7 +2770,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2790,17 +2790,17 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="D5" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="76" t="s">
-        <v>68</v>
+      <c r="D5" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2808,16 +2808,16 @@
         <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3747,22 +3747,22 @@
       <c r="C3" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="73"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="61"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" s="61"/>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="74"/>
+      <c r="E5" s="75"/>
     </row>
     <row r="6" spans="3:5" ht="22.5" customHeight="1">
       <c r="C6" s="61"/>
@@ -4112,28 +4112,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="74"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="75"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="75"/>
-      <c r="C4" s="74" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="74"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="75"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="51" t="s">
         <v>56</v>
       </c>

--- a/inputs/data_raw/Data_BART_planInfo_AV2019.xlsx
+++ b/inputs/data_raw/Data_BART_planInfo_AV2019.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_BART\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6BD958-F4E1-408F-8E4F-BA32771CBE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0983E4E1-5083-4E57-BAF4-16C89027B80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init_unrecReturn" sheetId="12" r:id="rId1"/>
     <sheet name="Init_amort_misc" sheetId="19" r:id="rId2"/>
-    <sheet name="benFactor_misc" sheetId="22" r:id="rId3"/>
-    <sheet name="benFactor_sfty" sheetId="23" r:id="rId4"/>
-    <sheet name="Init_amort_sfty" sheetId="21" r:id="rId5"/>
+    <sheet name="Init_amort_sfty" sheetId="21" r:id="rId3"/>
+    <sheet name="benFactor_misc" sheetId="22" r:id="rId4"/>
+    <sheet name="benFactor_sfty" sheetId="23" r:id="rId5"/>
     <sheet name="init_amort_misc_raw" sheetId="14" r:id="rId6"/>
     <sheet name="init_amort_sfty_raw" sheetId="16" r:id="rId7"/>
     <sheet name="Init_amort_old" sheetId="13" r:id="rId8"/>
@@ -1705,7 +1705,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2181,6 +2181,501 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A85458D-8B8C-49F3-AA65-BAD393CD3F76}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>20190630</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="C6" s="63"/>
+      <c r="D6" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="71"/>
+      <c r="F6" s="65"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" s="66">
+        <v>43646</v>
+      </c>
+      <c r="D8" s="67">
+        <v>2019</v>
+      </c>
+      <c r="E8" s="69">
+        <v>154926148</v>
+      </c>
+      <c r="F8" s="69">
+        <v>9001009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" s="66">
+        <v>44012</v>
+      </c>
+      <c r="D9" s="67">
+        <v>2020</v>
+      </c>
+      <c r="E9" s="69">
+        <v>156460264</v>
+      </c>
+      <c r="F9" s="69">
+        <v>10608953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="66">
+        <v>44377</v>
+      </c>
+      <c r="D10" s="67">
+        <v>2021</v>
+      </c>
+      <c r="E10" s="69">
+        <v>156438496</v>
+      </c>
+      <c r="F10" s="69">
+        <v>12672395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="66">
+        <v>44742</v>
+      </c>
+      <c r="D11" s="67">
+        <v>2022</v>
+      </c>
+      <c r="E11" s="69">
+        <v>154280763</v>
+      </c>
+      <c r="F11" s="69">
+        <v>13704617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="66">
+        <v>45107</v>
+      </c>
+      <c r="D12" s="67">
+        <v>2023</v>
+      </c>
+      <c r="E12" s="69">
+        <v>150904249</v>
+      </c>
+      <c r="F12" s="69">
+        <v>14414507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="66">
+        <v>45473</v>
+      </c>
+      <c r="D13" s="67">
+        <v>2024</v>
+      </c>
+      <c r="E13" s="69">
+        <v>146557065</v>
+      </c>
+      <c r="F13" s="69">
+        <v>13109648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" s="66">
+        <v>45838</v>
+      </c>
+      <c r="D14" s="67">
+        <v>2025</v>
+      </c>
+      <c r="E14" s="58">
+        <v>143255333</v>
+      </c>
+      <c r="F14" s="58">
+        <v>13533878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="66">
+        <v>46203</v>
+      </c>
+      <c r="D15" s="67">
+        <v>2026</v>
+      </c>
+      <c r="E15" s="58">
+        <v>139283655</v>
+      </c>
+      <c r="F15" s="58">
+        <v>13943207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="66">
+        <v>46568</v>
+      </c>
+      <c r="D16" s="67">
+        <v>2027</v>
+      </c>
+      <c r="E16" s="58">
+        <v>134610543</v>
+      </c>
+      <c r="F16" s="58">
+        <v>14299145</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="66">
+        <v>46934</v>
+      </c>
+      <c r="D17" s="67">
+        <v>2028</v>
+      </c>
+      <c r="E17" s="58">
+        <v>129242131</v>
+      </c>
+      <c r="F17" s="58">
+        <v>14664871</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="66">
+        <v>47299</v>
+      </c>
+      <c r="D18" s="67">
+        <v>2029</v>
+      </c>
+      <c r="E18" s="58">
+        <v>123119621</v>
+      </c>
+      <c r="F18" s="58">
+        <v>14937341</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="66">
+        <v>47664</v>
+      </c>
+      <c r="D19" s="67">
+        <v>2030</v>
+      </c>
+      <c r="E19" s="58">
+        <v>116286687</v>
+      </c>
+      <c r="F19" s="58">
+        <v>15320615</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="66">
+        <v>48029</v>
+      </c>
+      <c r="D20" s="67">
+        <v>2031</v>
+      </c>
+      <c r="E20" s="58">
+        <v>108578988</v>
+      </c>
+      <c r="F20" s="58">
+        <v>15020081</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="66">
+        <v>48395</v>
+      </c>
+      <c r="D21" s="67">
+        <v>2032</v>
+      </c>
+      <c r="E21" s="58">
+        <v>100642622</v>
+      </c>
+      <c r="F21" s="58">
+        <v>14972171</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="66">
+        <v>48760</v>
+      </c>
+      <c r="D22" s="67">
+        <v>2033</v>
+      </c>
+      <c r="E22" s="58">
+        <v>92200273</v>
+      </c>
+      <c r="F22" s="58">
+        <v>14257628</v>
+      </c>
+      <c r="H22" s="55"/>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="66">
+        <v>49125</v>
+      </c>
+      <c r="D23" s="67">
+        <v>2034</v>
+      </c>
+      <c r="E23" s="58">
+        <v>83906087</v>
+      </c>
+      <c r="F23" s="58">
+        <v>14000466</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="66">
+        <v>49490</v>
+      </c>
+      <c r="D24" s="67">
+        <v>2035</v>
+      </c>
+      <c r="E24" s="58">
+        <v>75297318</v>
+      </c>
+      <c r="F24" s="58">
+        <v>13507370</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="66">
+        <v>49856</v>
+      </c>
+      <c r="D25" s="67">
+        <v>2036</v>
+      </c>
+      <c r="E25" s="58">
+        <v>66595998</v>
+      </c>
+      <c r="F25" s="58">
+        <v>12573812</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="66">
+        <v>50221</v>
+      </c>
+      <c r="D26" s="67">
+        <v>2037</v>
+      </c>
+      <c r="E26" s="58">
+        <v>58251267</v>
+      </c>
+      <c r="F26" s="58">
+        <v>12075873</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="66">
+        <v>50586</v>
+      </c>
+      <c r="D27" s="67">
+        <v>2038</v>
+      </c>
+      <c r="E27" s="58">
+        <v>49837476</v>
+      </c>
+      <c r="F27" s="58">
+        <v>11541799</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="66">
+        <v>50951</v>
+      </c>
+      <c r="D28" s="67">
+        <v>2039</v>
+      </c>
+      <c r="E28" s="58">
+        <v>41387169</v>
+      </c>
+      <c r="F28" s="58">
+        <v>11157933</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="66">
+        <v>51317</v>
+      </c>
+      <c r="D29" s="67">
+        <v>2040</v>
+      </c>
+      <c r="E29" s="58">
+        <v>32742416</v>
+      </c>
+      <c r="F29" s="58">
+        <v>10987512</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="66">
+        <v>51682</v>
+      </c>
+      <c r="D30" s="67">
+        <v>2041</v>
+      </c>
+      <c r="E30" s="58">
+        <v>23668813</v>
+      </c>
+      <c r="F30" s="58">
+        <v>8565616</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="66">
+        <v>52047</v>
+      </c>
+      <c r="D31" s="67">
+        <v>2042</v>
+      </c>
+      <c r="E31" s="58">
+        <v>16465289</v>
+      </c>
+      <c r="F31" s="58">
+        <v>7530981</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="66">
+        <v>52412</v>
+      </c>
+      <c r="D32" s="67">
+        <v>2043</v>
+      </c>
+      <c r="E32" s="58">
+        <v>9827751</v>
+      </c>
+      <c r="F32" s="58">
+        <v>6552964</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="66">
+        <v>52778</v>
+      </c>
+      <c r="D33" s="67">
+        <v>2044</v>
+      </c>
+      <c r="E33" s="58">
+        <v>3737255</v>
+      </c>
+      <c r="F33" s="58">
+        <v>2171442</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="66">
+        <v>53143</v>
+      </c>
+      <c r="D34" s="67">
+        <v>2045</v>
+      </c>
+      <c r="E34" s="58">
+        <v>1752707</v>
+      </c>
+      <c r="F34" s="58">
+        <v>1052860</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="66">
+        <v>53508</v>
+      </c>
+      <c r="D35" s="67">
+        <v>2046</v>
+      </c>
+      <c r="E35" s="58">
+        <v>786309</v>
+      </c>
+      <c r="F35" s="58">
+        <v>802747</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="66">
+        <v>53873</v>
+      </c>
+      <c r="D36" s="67">
+        <v>2047</v>
+      </c>
+      <c r="E36" s="58">
+        <v>10983</v>
+      </c>
+      <c r="F36" s="58">
+        <v>11361</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{590E7CA5-30AA-4AA4-8076-5F6C1D420D5E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9147E840-414A-4EF7-8AF7-D7B00A1C58BE}">
   <dimension ref="A1:I27"/>
   <sheetViews>
@@ -2744,12 +3239,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0846F66D-AF41-4840-B50F-FCBDD98B101F}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2831,7 +3326,7 @@
         <v>0.02</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:G13" si="0">E7/$E$14</f>
@@ -2849,7 +3344,7 @@
         <v>2.0709999999999999E-2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -2871,7 +3366,7 @@
         <v>2.1430000000000001E-2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -2893,7 +3388,7 @@
         <v>2.214E-2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -2915,7 +3410,7 @@
         <v>2.2859999999999998E-2</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -2937,7 +3432,7 @@
         <v>2.3570000000000001E-2</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -2959,7 +3454,7 @@
         <v>2.4289999999999999E-2</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -2981,7 +3476,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f>E14/$E$14</f>
@@ -3003,7 +3498,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G27" si="2">E15/$E$14</f>
@@ -3021,7 +3516,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
@@ -3039,7 +3534,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
@@ -3057,7 +3552,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
@@ -3075,7 +3570,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
@@ -3093,7 +3588,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
@@ -3111,7 +3606,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
@@ -3129,7 +3624,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
@@ -3147,7 +3642,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
@@ -3165,7 +3660,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
@@ -3183,7 +3678,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
@@ -3201,7 +3696,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
@@ -3219,7 +3714,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
@@ -3234,507 +3729,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A85458D-8B8C-49F3-AA65-BAD393CD3F76}">
-  <dimension ref="A1:H36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="21.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>20190630</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="C6" s="63"/>
-      <c r="D6" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="65"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="C7" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="72" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8" s="66">
-        <v>43646</v>
-      </c>
-      <c r="D8" s="67">
-        <v>2019</v>
-      </c>
-      <c r="E8" s="69">
-        <v>154926148</v>
-      </c>
-      <c r="F8" s="69">
-        <v>9001009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="C9" s="66">
-        <v>44012</v>
-      </c>
-      <c r="D9" s="67">
-        <v>2020</v>
-      </c>
-      <c r="E9" s="69">
-        <v>156460264</v>
-      </c>
-      <c r="F9" s="69">
-        <v>10608953</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" s="66">
-        <v>44377</v>
-      </c>
-      <c r="D10" s="67">
-        <v>2021</v>
-      </c>
-      <c r="E10" s="69">
-        <v>156438496</v>
-      </c>
-      <c r="F10" s="69">
-        <v>12672395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="C11" s="66">
-        <v>44742</v>
-      </c>
-      <c r="D11" s="67">
-        <v>2022</v>
-      </c>
-      <c r="E11" s="69">
-        <v>154280763</v>
-      </c>
-      <c r="F11" s="69">
-        <v>13704617</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="C12" s="66">
-        <v>45107</v>
-      </c>
-      <c r="D12" s="67">
-        <v>2023</v>
-      </c>
-      <c r="E12" s="69">
-        <v>150904249</v>
-      </c>
-      <c r="F12" s="69">
-        <v>14414507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13" s="66">
-        <v>45473</v>
-      </c>
-      <c r="D13" s="67">
-        <v>2024</v>
-      </c>
-      <c r="E13" s="69">
-        <v>146557065</v>
-      </c>
-      <c r="F13" s="69">
-        <v>13109648</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="C14" s="66">
-        <v>45838</v>
-      </c>
-      <c r="D14" s="67">
-        <v>2025</v>
-      </c>
-      <c r="E14" s="58">
-        <v>143255333</v>
-      </c>
-      <c r="F14" s="58">
-        <v>13533878</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="66">
-        <v>46203</v>
-      </c>
-      <c r="D15" s="67">
-        <v>2026</v>
-      </c>
-      <c r="E15" s="58">
-        <v>139283655</v>
-      </c>
-      <c r="F15" s="58">
-        <v>13943207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16" s="66">
-        <v>46568</v>
-      </c>
-      <c r="D16" s="67">
-        <v>2027</v>
-      </c>
-      <c r="E16" s="58">
-        <v>134610543</v>
-      </c>
-      <c r="F16" s="58">
-        <v>14299145</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="66">
-        <v>46934</v>
-      </c>
-      <c r="D17" s="67">
-        <v>2028</v>
-      </c>
-      <c r="E17" s="58">
-        <v>129242131</v>
-      </c>
-      <c r="F17" s="58">
-        <v>14664871</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="66">
-        <v>47299</v>
-      </c>
-      <c r="D18" s="67">
-        <v>2029</v>
-      </c>
-      <c r="E18" s="58">
-        <v>123119621</v>
-      </c>
-      <c r="F18" s="58">
-        <v>14937341</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="66">
-        <v>47664</v>
-      </c>
-      <c r="D19" s="67">
-        <v>2030</v>
-      </c>
-      <c r="E19" s="58">
-        <v>116286687</v>
-      </c>
-      <c r="F19" s="58">
-        <v>15320615</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="66">
-        <v>48029</v>
-      </c>
-      <c r="D20" s="67">
-        <v>2031</v>
-      </c>
-      <c r="E20" s="58">
-        <v>108578988</v>
-      </c>
-      <c r="F20" s="58">
-        <v>15020081</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="66">
-        <v>48395</v>
-      </c>
-      <c r="D21" s="67">
-        <v>2032</v>
-      </c>
-      <c r="E21" s="58">
-        <v>100642622</v>
-      </c>
-      <c r="F21" s="58">
-        <v>14972171</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="66">
-        <v>48760</v>
-      </c>
-      <c r="D22" s="67">
-        <v>2033</v>
-      </c>
-      <c r="E22" s="58">
-        <v>92200273</v>
-      </c>
-      <c r="F22" s="58">
-        <v>14257628</v>
-      </c>
-      <c r="H22" s="55"/>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="66">
-        <v>49125</v>
-      </c>
-      <c r="D23" s="67">
-        <v>2034</v>
-      </c>
-      <c r="E23" s="58">
-        <v>83906087</v>
-      </c>
-      <c r="F23" s="58">
-        <v>14000466</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="66">
-        <v>49490</v>
-      </c>
-      <c r="D24" s="67">
-        <v>2035</v>
-      </c>
-      <c r="E24" s="58">
-        <v>75297318</v>
-      </c>
-      <c r="F24" s="58">
-        <v>13507370</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="C25" s="66">
-        <v>49856</v>
-      </c>
-      <c r="D25" s="67">
-        <v>2036</v>
-      </c>
-      <c r="E25" s="58">
-        <v>66595998</v>
-      </c>
-      <c r="F25" s="58">
-        <v>12573812</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8">
-      <c r="C26" s="66">
-        <v>50221</v>
-      </c>
-      <c r="D26" s="67">
-        <v>2037</v>
-      </c>
-      <c r="E26" s="58">
-        <v>58251267</v>
-      </c>
-      <c r="F26" s="58">
-        <v>12075873</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="66">
-        <v>50586</v>
-      </c>
-      <c r="D27" s="67">
-        <v>2038</v>
-      </c>
-      <c r="E27" s="58">
-        <v>49837476</v>
-      </c>
-      <c r="F27" s="58">
-        <v>11541799</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="66">
-        <v>50951</v>
-      </c>
-      <c r="D28" s="67">
-        <v>2039</v>
-      </c>
-      <c r="E28" s="58">
-        <v>41387169</v>
-      </c>
-      <c r="F28" s="58">
-        <v>11157933</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8">
-      <c r="C29" s="66">
-        <v>51317</v>
-      </c>
-      <c r="D29" s="67">
-        <v>2040</v>
-      </c>
-      <c r="E29" s="58">
-        <v>32742416</v>
-      </c>
-      <c r="F29" s="58">
-        <v>10987512</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8">
-      <c r="C30" s="66">
-        <v>51682</v>
-      </c>
-      <c r="D30" s="67">
-        <v>2041</v>
-      </c>
-      <c r="E30" s="58">
-        <v>23668813</v>
-      </c>
-      <c r="F30" s="58">
-        <v>8565616</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8">
-      <c r="C31" s="66">
-        <v>52047</v>
-      </c>
-      <c r="D31" s="67">
-        <v>2042</v>
-      </c>
-      <c r="E31" s="58">
-        <v>16465289</v>
-      </c>
-      <c r="F31" s="58">
-        <v>7530981</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8">
-      <c r="C32" s="66">
-        <v>52412</v>
-      </c>
-      <c r="D32" s="67">
-        <v>2043</v>
-      </c>
-      <c r="E32" s="58">
-        <v>9827751</v>
-      </c>
-      <c r="F32" s="58">
-        <v>6552964</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6">
-      <c r="C33" s="66">
-        <v>52778</v>
-      </c>
-      <c r="D33" s="67">
-        <v>2044</v>
-      </c>
-      <c r="E33" s="58">
-        <v>3737255</v>
-      </c>
-      <c r="F33" s="58">
-        <v>2171442</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6">
-      <c r="C34" s="66">
-        <v>53143</v>
-      </c>
-      <c r="D34" s="67">
-        <v>2045</v>
-      </c>
-      <c r="E34" s="58">
-        <v>1752707</v>
-      </c>
-      <c r="F34" s="58">
-        <v>1052860</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6">
-      <c r="C35" s="66">
-        <v>53508</v>
-      </c>
-      <c r="D35" s="67">
-        <v>2046</v>
-      </c>
-      <c r="E35" s="58">
-        <v>786309</v>
-      </c>
-      <c r="F35" s="58">
-        <v>802747</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6">
-      <c r="C36" s="66">
-        <v>53873</v>
-      </c>
-      <c r="D36" s="67">
-        <v>2047</v>
-      </c>
-      <c r="E36" s="58">
-        <v>10983</v>
-      </c>
-      <c r="F36" s="58">
-        <v>11361</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{590E7CA5-30AA-4AA4-8076-5F6C1D420D5E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9BA894-C57D-4344-8269-499E3FED8AF1}">
   <dimension ref="C3:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E32"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
